--- a/data/trans_dic/P36$cafe-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36$cafe-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8781956541043373</v>
+        <v>0.8760896208948356</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8809939389855966</v>
+        <v>0.8826935065126633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8803787684021032</v>
+        <v>0.8817800559610688</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9036629080533575</v>
+        <v>0.902881381464268</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9162555850049039</v>
+        <v>0.9164514915293225</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9233383172727145</v>
+        <v>0.9246863573035313</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8992188075900857</v>
+        <v>0.9000955512766234</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9053945008745649</v>
+        <v>0.9056458267010358</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9091775911984099</v>
+        <v>0.9093157810276156</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9269266140841047</v>
+        <v>0.9262495911928934</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9221463468460563</v>
+        <v>0.9205169414209752</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9179414147625597</v>
+        <v>0.9173580148684167</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9392702451181164</v>
+        <v>0.9374312277759131</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9476668002972235</v>
+        <v>0.94756246336534</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9505775401637915</v>
+        <v>0.9522242562425544</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9280630064226365</v>
+        <v>0.9290597188161791</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9303604921766471</v>
+        <v>0.9297473809046661</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9322336874316854</v>
+        <v>0.9328149936749227</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8899986963690963</v>
+        <v>0.8903912296972829</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8979152272338661</v>
+        <v>0.8956610409799394</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8928244919896897</v>
+        <v>0.8949672002561085</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8953347773008655</v>
+        <v>0.8996715757551885</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9170074374316706</v>
+        <v>0.9174660081150354</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9066687601477784</v>
+        <v>0.9070985674005182</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.899736226123138</v>
+        <v>0.8992418120489999</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9140369339463839</v>
+        <v>0.9132584656179531</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9052442220305363</v>
+        <v>0.9055836911723399</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9249780379856263</v>
+        <v>0.9248848642466349</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9340257479814177</v>
+        <v>0.9334176349467175</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9311380259775395</v>
+        <v>0.9313328419287562</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9306050961517515</v>
+        <v>0.9328088992496893</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9478532625286056</v>
+        <v>0.9470261973487689</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9399210217538362</v>
+        <v>0.9402856647187033</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9247400435574726</v>
+        <v>0.9247760620258465</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9375631760686622</v>
+        <v>0.9362978115325029</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9300037364090412</v>
+        <v>0.9312790191165597</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9057715054734971</v>
+        <v>0.9075373947864278</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.910542190958304</v>
+        <v>0.9113798883433468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8995654323881629</v>
+        <v>0.8974795081046478</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8944441303834466</v>
+        <v>0.894795346697684</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9244921877864071</v>
+        <v>0.9245275540961038</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9259582539279083</v>
+        <v>0.9243274707066043</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.90637496231963</v>
+        <v>0.908120670729314</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9248179577144719</v>
+        <v>0.9239330783855307</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9160857754787448</v>
+        <v>0.9176782500097581</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9382208818250412</v>
+        <v>0.9392430713269789</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9484714780025808</v>
+        <v>0.9489592007977589</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9378031459488357</v>
+        <v>0.9368620796436191</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.930335341394017</v>
+        <v>0.9308233598790008</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9566125782155404</v>
+        <v>0.9569205979280057</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9583168457946982</v>
+        <v>0.9582279330704984</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9301782387199933</v>
+        <v>0.9308392679491818</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9480564245585581</v>
+        <v>0.9489000438842248</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9436790115944249</v>
+        <v>0.9431423569599554</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8926211587904347</v>
+        <v>0.8933446045746413</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8711978159393834</v>
+        <v>0.869993204478652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.868086984028503</v>
+        <v>0.8728573737123312</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8745532051084554</v>
+        <v>0.8725204450866535</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9101238272639219</v>
+        <v>0.9101143743680702</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9159173136149512</v>
+        <v>0.9130992276930792</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8935900917088311</v>
+        <v>0.8928134454683146</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8993747014059972</v>
+        <v>0.9005887520693244</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9022681459064418</v>
+        <v>0.8998872511256409</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9441795840775803</v>
+        <v>0.9447175559307996</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9307662683006586</v>
+        <v>0.929605715122419</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9248083994112184</v>
+        <v>0.9263540435881813</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9360481650870461</v>
+        <v>0.9354563880840181</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9576525333020104</v>
+        <v>0.9570235687264168</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9576528822992275</v>
+        <v>0.9572674430012329</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9337264157016876</v>
+        <v>0.9339427476412187</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9390618280772109</v>
+        <v>0.9385959618846109</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9372085345498172</v>
+        <v>0.9356716819556435</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9042994901814553</v>
+        <v>0.9043828275674406</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9041797914164598</v>
+        <v>0.9041570483739428</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8982172435011797</v>
+        <v>0.8972427021441467</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9069914211059499</v>
+        <v>0.9044729562062673</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9275579104255066</v>
+        <v>0.9271879009522556</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9271962483147849</v>
+        <v>0.9267037242142233</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9079079305811087</v>
+        <v>0.9084742256457315</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9190711591662164</v>
+        <v>0.9188086478544146</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9154927331578369</v>
+        <v>0.9156078331204764</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9243771362860139</v>
+        <v>0.9242910567521578</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9243686608106696</v>
+        <v>0.9239228254885072</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9185717002887337</v>
+        <v>0.9187395049711208</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9251820960425506</v>
+        <v>0.9253152641343163</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9442306307630713</v>
+        <v>0.9436541054791507</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.943578165282923</v>
+        <v>0.9431831249097101</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9222210224429815</v>
+        <v>0.9219739008379306</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9317140501412756</v>
+        <v>0.9319070988197816</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9285254932546422</v>
+        <v>0.9287318416545389</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>512990</v>
+        <v>511760</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>917068</v>
+        <v>918837</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>992111</v>
+        <v>993690</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>833478</v>
+        <v>832757</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1023390</v>
+        <v>1023608</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1163001</v>
+        <v>1164699</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1354650</v>
+        <v>1355971</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1953727</v>
+        <v>1954270</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2169729</v>
+        <v>2170058</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>541456</v>
+        <v>541060</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>959905</v>
+        <v>958209</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1034441</v>
+        <v>1033784</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>866320</v>
+        <v>864624</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1058474</v>
+        <v>1058357</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1197310</v>
+        <v>1199385</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1398103</v>
+        <v>1399604</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2007601</v>
+        <v>2006278</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2224751</v>
+        <v>2226139</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>956586</v>
+        <v>957008</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>875646</v>
+        <v>873448</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>809640</v>
+        <v>811583</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>945104</v>
+        <v>949682</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1003446</v>
+        <v>1003948</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>910599</v>
+        <v>911031</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1916802</v>
+        <v>1915748</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1891564</v>
+        <v>1889953</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1730071</v>
+        <v>1730720</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>994182</v>
+        <v>994082</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>910861</v>
+        <v>910268</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>844384</v>
+        <v>844561</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>982335</v>
+        <v>984661</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1037200</v>
+        <v>1036295</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>943996</v>
+        <v>944362</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1970070</v>
+        <v>1970147</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1940250</v>
+        <v>1937632</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1777391</v>
+        <v>1779828</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1013415</v>
+        <v>1015391</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>805935</v>
+        <v>806676</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>740223</v>
+        <v>738506</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>888063</v>
+        <v>888412</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>808593</v>
+        <v>808624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>713968</v>
+        <v>712711</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1913999</v>
+        <v>1917686</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1627448</v>
+        <v>1625891</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1460173</v>
+        <v>1462711</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1049721</v>
+        <v>1050865</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>839506</v>
+        <v>839938</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>771687</v>
+        <v>770913</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>923698</v>
+        <v>924183</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>836687</v>
+        <v>836956</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>738919</v>
+        <v>738850</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1964265</v>
+        <v>1965661</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1668342</v>
+        <v>1669827</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1504155</v>
+        <v>1503299</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>398379</v>
+        <v>398701</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>437326</v>
+        <v>436721</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>439861</v>
+        <v>442278</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>298361</v>
+        <v>297667</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>410261</v>
+        <v>410257</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>447503</v>
+        <v>446127</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>703666</v>
+        <v>703055</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>856885</v>
+        <v>858041</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>898015</v>
+        <v>895645</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>421389</v>
+        <v>421629</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>467228</v>
+        <v>466645</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>468601</v>
+        <v>469385</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>319340</v>
+        <v>319138</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>431686</v>
+        <v>431402</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>467895</v>
+        <v>467707</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>735272</v>
+        <v>735443</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>894697</v>
+        <v>894253</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>932791</v>
+        <v>931261</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2915554</v>
+        <v>2915822</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3077144</v>
+        <v>3077066</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3020985</v>
+        <v>3017707</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3003905</v>
+        <v>2995564</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3280399</v>
+        <v>3279091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3267013</v>
+        <v>3265278</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5934128</v>
+        <v>5937829</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6378209</v>
+        <v>6376387</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6304863</v>
+        <v>6305656</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2980286</v>
+        <v>2980009</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3145851</v>
+        <v>3144334</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3089443</v>
+        <v>3090008</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3064151</v>
+        <v>3064592</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3339364</v>
+        <v>3337325</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3324735</v>
+        <v>3323343</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6027679</v>
+        <v>6026064</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>6465948</v>
+        <v>6467288</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6394618</v>
+        <v>6396039</v>
       </c>
     </row>
     <row r="24">
